--- a/Bellcon/~~~BELLCON_TEMPLATE~~~.xlsx
+++ b/Bellcon/~~~BELLCON_TEMPLATE~~~.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Bellcon\30160\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Bellcon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483804D3-5612-4BAC-B81E-7AE168DEF544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D1F33-F05B-47C6-874F-7DDB584632B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="825" windowWidth="29265" windowHeight="19695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8670" yWindow="1095" windowWidth="29040" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">Acceptance Criteria - </t>
   </si>
   <si>
-    <t>Inspection Responsibility: BCL -</t>
-  </si>
-  <si>
-    <t>Inspection Responsibility: Client -</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verification Records of Inspection(s) / Test(s) - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection Responsibility: BCL - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection Responsibility: Client - </t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
